--- a/明日之后共创服数据库/半成品.xlsx
+++ b/明日之后共创服数据库/半成品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\明日之后共创服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\明日之后LifeAfter\Lifeafter database\明日之后共创服数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE755C-0DA9-4920-AC18-9D503453BCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3186C42-9AB8-4112-8741-30A6318767BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1188" windowWidth="22680" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2160" windowWidth="17172" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -43,15 +43,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>枪械工专属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲工专属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半成品等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,13 +383,13 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="5" width="16" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
   </cols>
@@ -402,10 +402,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
